--- a/Требования к молитвослову.xlsx
+++ b/Требования к молитвослову.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Пожелания" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="План работ" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Величина шрифта должна меняться раздвижением или сжатием двух пальцев</t>
   </si>
@@ -34,13 +34,40 @@
   </si>
   <si>
     <t>Яркость меняется перемещением ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата начала </t>
+  </si>
+  <si>
+    <t>Дата завершения</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Создание схемы хранения молитв в базе</t>
+  </si>
+  <si>
+    <t>Занесение утренних молитв в базу, расстановка переносов, вывод на экран</t>
+  </si>
+  <si>
+    <t>Привязка имен к молитвослову</t>
+  </si>
+  <si>
+    <t>Создание интерфейса, доведение до первой альфы</t>
+  </si>
+  <si>
+    <t>Завершение первого этапа</t>
+  </si>
+  <si>
+    <t>Разработка и созадние интерфейса ввода имен в помянник</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +76,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -375,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -435,13 +481,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42429</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42429</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42429</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42433</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42433</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42434</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
